--- a/ML_PL_new/predictions_tx.xlsx
+++ b/ML_PL_new/predictions_tx.xlsx
@@ -2071,12 +2071,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2086,37 +2086,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2141,55 +2141,55 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>TSG Hoffenheim</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>FSV Mainz 05</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1.25</v>
+        <v>2.74</v>
       </c>
       <c r="V10" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="W10" t="n">
-        <v>8.25</v>
+        <v>2.18</v>
       </c>
       <c r="X10" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="Z10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -2204,28 +2204,28 @@
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.8474576271186439</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>0.8474576271186439</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>0.8474576271186439</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>0.8474576271186439</v>
       </c>
       <c r="AL10" t="n">
-        <v>2</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="AM10" t="n">
-        <v>2</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="AN10" t="n">
-        <v>2</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="AO10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>0.9523809523809526</v>
       </c>
     </row>
     <row r="11">
@@ -2246,12 +2246,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>M'gladbach</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2316,43 +2316,43 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Borussia Monchengladbach</t>
+          <t>VfL Bochum</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>SC Freiburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Mönchengladbach</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="V11" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="W11" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="X11" t="n">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.063829787234043</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -2376,31 +2376,31 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.4761904761904762</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.886792452830188</v>
+        <v>1.234567901234568</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.886792452830188</v>
+        <v>1.234567901234568</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.886792452830188</v>
+        <v>1.234567901234568</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1.234567901234568</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.8474576271186439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>M'gladbach</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2641,14 +2641,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>Over</t>
@@ -2666,43 +2666,43 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>VfL Bochum</t>
+          <t>Borussia Monchengladbach</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mönchengladbach</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="W13" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="X13" t="n">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.8695652173913044</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2726,31 +2726,31 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.425531914893617</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.234567901234568</v>
+        <v>1.886792452830188</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.234567901234568</v>
+        <v>1.886792452830188</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.234567901234568</v>
+        <v>1.886792452830188</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.234567901234568</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.8474576271186439</v>
       </c>
     </row>
     <row r="14">
@@ -2771,12 +2771,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2786,44 +2786,44 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>Over</t>
@@ -2841,55 +2841,55 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>TSG Hoffenheim</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>FSV Mainz 05</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>2.74</v>
+        <v>1.25</v>
       </c>
       <c r="V14" t="n">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="W14" t="n">
-        <v>2.18</v>
+        <v>8.25</v>
       </c>
       <c r="X14" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2904,28 +2904,28 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.8474576271186439</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.8474576271186439</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.8474576271186439</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.8474576271186439</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.639344262295082</v>
+        <v>2</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.639344262295082</v>
+        <v>2</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.639344262295082</v>
+        <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.9523809523809526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -10881,12 +10881,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -10895,76 +10895,76 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.293675502596524</v>
+        <v>0.8938128261885537</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1513938151785094</v>
+        <v>0.08209362404625328</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5549306822249681</v>
+        <v>0.02409354976519363</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1968924652216883</v>
+        <v>0.3813161491969304</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2395187078249265</v>
+        <v>0.3374224636290443</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5635888269533847</v>
+        <v>0.2812613871740253</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04545454545454546</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1363636363636364</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8181818181818182</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.7343859722621945</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1196523155364254</v>
+        <v>0.117220238597397</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8803476844635745</v>
+        <v>0.1483937891404085</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2485422372105284</v>
+        <v>0.5534530459701571</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7514577627894728</v>
+        <v>0.4465469540298431</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2481144707384086</v>
+        <v>0.5494566716479293</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7518855292615915</v>
+        <v>0.4505433283520706</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3755274261603376</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6244725738396625</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6178245078961999</v>
+        <v>0.524200140682832</v>
       </c>
       <c r="X10" t="n">
-        <v>0.3821754921038001</v>
+        <v>0.475799859317168</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7333824221624503</v>
+        <v>0.6479514436425383</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2666175778375513</v>
+        <v>0.3520485563574623</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7164319325627947</v>
+        <v>0.5230414151391769</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.2835680674372055</v>
+        <v>0.4769585848608232</v>
       </c>
       <c r="AC10" t="n">
         <v>0.6441441441441441</v>
@@ -10973,167 +10973,169 @@
         <v>0.3558558558558558</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6314892202861682</v>
+        <v>0.3585796207197709</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.3685107797138318</v>
+        <v>0.641420379280229</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>TSG Hoffenheim</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>FSV Mainz 05</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="AK10" t="n">
-        <v>1.25</v>
+        <v>2.74</v>
       </c>
       <c r="AL10" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>8.25</v>
+        <v>2.18</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AP10" t="n">
-        <v>44.1621495485595</v>
+        <v>1414.776806267351</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41.9474556166404</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>-2.222222222222225</v>
+        <v>29.75954762813588</v>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="AS10" t="n">
-        <v>-9.126812722013689</v>
+        <v>145.9425733137057</v>
       </c>
       <c r="AT10" t="n">
-        <v>25.81504089291813</v>
+        <v>248.0346848292484</v>
       </c>
       <c r="AU10" t="n">
-        <v>-20.47544335642589</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>39.68253968253968</v>
+        <v>-15.32446220640649</v>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="AW10" t="n">
-        <v>59.19139518716992</v>
+        <v>143.7414299211555</v>
       </c>
       <c r="AX10" t="n">
-        <v>-58.7258316950418</v>
+        <v>-48.67878565959322</v>
       </c>
       <c r="AY10" t="n">
-        <v>-38.43739978792783</v>
+        <v>20.29797250820655</v>
       </c>
       <c r="AZ10" t="n">
-        <v>166.6666666666667</v>
-      </c>
-      <c r="BA10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>-54.12844036697248</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>-37.53753289741459</v>
       </c>
       <c r="BB10" t="n">
-        <v>-9.096994075623698</v>
+        <v>-4.141271924533529</v>
       </c>
       <c r="BC10" t="n">
-        <v>-6.946265741967917</v>
+        <v>18.75121060099723</v>
       </c>
       <c r="BD10" t="n">
-        <v>3.4965034965035</v>
+        <v>-3.574686183381837</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.570553740340545</v>
+        <v>73.21620542059819</v>
       </c>
       <c r="BF10" t="n">
-        <v>66.6973528336688</v>
+        <v>38.56181746516643</v>
       </c>
       <c r="BG10" t="n">
-        <v>56.73289607718757</v>
+        <v>2.274053457098857</v>
       </c>
       <c r="BH10" t="n">
-        <v>24.8945147679325</v>
+        <v>37.07934547699909</v>
       </c>
       <c r="BI10" t="n">
-        <v>20.60554776432295</v>
+        <v>-23.94927043070074</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-4.667987005238705</v>
+        <v>-0.9328679635589529</v>
       </c>
       <c r="BK10" t="n">
-        <v>-4.503069962792673</v>
+        <v>-0.2290698316245476</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0.998805428707266</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>-0.5926921579343912</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.04378977624390037</v>
+        <v>-0.3878488793676808</v>
       </c>
       <c r="BO10" t="n">
         <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.06063031273115307</v>
+        <v>-0.5442176870748299</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.07935448172522697</v>
+        <v>-0.320941042127407</v>
       </c>
       <c r="BR10" t="n">
         <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0.3123464371805681</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.04975867044832562</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0.079613872717321</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
         <v>0</v>
       </c>
       <c r="BW10" t="n">
-        <v>0</v>
+        <v>-0.7656252715314854</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.2145002145002144</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.3350232988618901</v>
+        <v>-2.049480028903898</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0.6774356823119739</v>
+        <v>-0.615674928305298</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0.6128623885990054</v>
+        <v>-0.04918953826738041</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.3374803374803375</v>
+        <v>-0.5984082639134909</v>
       </c>
       <c r="CC10" t="n">
-        <v>-0.289271103735667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -11142,12 +11144,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>M'gladbach</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -11156,22 +11158,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7691283641109938</v>
+        <v>0.9023925773784958</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1502076928053032</v>
+        <v>0.07704486353189684</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08066394308370287</v>
+        <v>0.02056255908960623</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3656330080884651</v>
+        <v>0.5371236802426288</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3084270059255725</v>
+        <v>0.193407913319244</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3259399859859622</v>
+        <v>0.2694684064381273</v>
       </c>
       <c r="K11" t="n">
         <v>0.3214285714285715</v>
@@ -11183,182 +11185,182 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7434276503947933</v>
+        <v>0.2484439491946558</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2565723496052068</v>
+        <v>0.4912202982836466</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.2603357525216976</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2650631134939693</v>
+        <v>0.106025248898396</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7349368865060297</v>
+        <v>0.8939747511016048</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4398998173778449</v>
+        <v>0.1857188574662288</v>
       </c>
       <c r="T11" t="n">
-        <v>0.560100182622155</v>
+        <v>0.8142811425337716</v>
       </c>
       <c r="U11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.1246911184524468</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.8753088815475532</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.9392949897645219</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.06070501023547673</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.7748433178987274</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.2251566821012727</v>
+      </c>
+      <c r="AC11" t="n">
         <v>1</v>
       </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.3646856602243354</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.6353143397756646</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.8198459419094088</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.180154058090592</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.600712603947109</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0.3992873960528909</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0.6441441441441441</v>
-      </c>
       <c r="AD11" t="n">
-        <v>0.3558558558558558</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.378741990170458</v>
+        <v>0.620270891219535</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.621258009829542</v>
+        <v>0.3797291087804648</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Borussia Monchengladbach</t>
+          <t>VfL Bochum</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>SC Freiburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Mönchengladbach</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="AK11" t="n">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="AL11" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="AP11" t="n">
-        <v>539.0264321580335</v>
+        <v>2161.95716711579</v>
       </c>
       <c r="AQ11" t="n">
-        <v>58.14687969826859</v>
+        <v>72.60512474087125</v>
       </c>
       <c r="AR11" t="n">
-        <v>44.32989690721651</v>
-      </c>
-      <c r="AS11" t="inlineStr">
+        <v>30.23255813953487</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>78.66016271852729</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>287.446286491226</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>54.34087342323124</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-7.131011608623561</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>-39.23144794106224</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>-61.78740884497951</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>-35.80108289935541</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>7.279693486590033</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>38.79492228515667</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>-41.18075856192841</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>-28.69704428198808</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>-44.75138121546961</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>-10.92824189137063</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>820.2851885042725</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>148.1202035237919</v>
+      </c>
+      <c r="BH11" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="AT11" t="n">
-        <v>82.3958531170869</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>-11.17100724771191</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>-14.76407914764081</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6.78181150903181</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>-58.05893265499979</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>-11.77474734905722</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0.3584229390680926</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>-56.6090062711569</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>-20.2783428165031</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>8.803239177478162</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>1.467160290689717</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>72.56992575543866</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>154.6240707492729</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>14.88356528777388</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>28.90488909534317</v>
-      </c>
       <c r="BI11" t="n">
-        <v>-26.16343144515183</v>
+        <v>47.12046165522592</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-2.202634115714643</v>
+        <v>-1.840802153126962</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0.9601009703131258</v>
+        <v>-0.8101361185575164</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.8020317141991697</v>
+        <v>-0.4470949148112228</v>
       </c>
       <c r="BM11" t="n">
-        <v>-2.611266046229855</v>
+        <v>-0.847952490882277</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.2223987599899781</v>
+        <v>-0.4487590661695448</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0.2129676785558727</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.0312673012300436</v>
+        <v>0</v>
       </c>
       <c r="BR11" t="n">
         <v>0</v>
@@ -11367,34 +11369,34 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0.002612412092333019</v>
+        <v>-0.05864414731409806</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0.2415630000306788</v>
       </c>
       <c r="BV11" t="n">
         <v>0</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0.4751317816237292</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0.08491129467822067</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-2.469476918880253</v>
+        <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-1.124138572395816</v>
+        <v>-3.001532294403968</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0.2398232456714458</v>
+        <v>-2.010262421795192</v>
       </c>
       <c r="CB11" t="n">
-        <v>-0.4150917694690047</v>
+        <v>-3.36744555682396</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-1.078541947538457</v>
       </c>
     </row>
     <row r="12">
@@ -11662,12 +11664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>M'gladbach</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -11676,22 +11678,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9023925773784958</v>
+        <v>0.7691283641109938</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07704486353189684</v>
+        <v>0.1502076928053032</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02056255908960623</v>
+        <v>0.08066394308370287</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5371236802426288</v>
+        <v>0.3656330080884651</v>
       </c>
       <c r="I13" t="n">
-        <v>0.193407913319244</v>
+        <v>0.3084270059255725</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2694684064381273</v>
+        <v>0.3259399859859622</v>
       </c>
       <c r="K13" t="n">
         <v>0.3214285714285715</v>
@@ -11703,182 +11705,182 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2484439491946558</v>
+        <v>0.7434276503947933</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4912202982836466</v>
+        <v>0.2565723496052068</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2603357525216976</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.106025248898396</v>
+        <v>0.2650631134939693</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8939747511016048</v>
+        <v>0.7349368865060297</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1857188574662288</v>
+        <v>0.4398998173778449</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8142811425337716</v>
+        <v>0.560100182622155</v>
       </c>
       <c r="U13" t="n">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1246911184524468</v>
+        <v>0.3646856602243354</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8753088815475532</v>
+        <v>0.6353143397756646</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9392949897645219</v>
+        <v>0.8198459419094088</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.06070501023547673</v>
+        <v>0.180154058090592</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.7748433178987274</v>
+        <v>0.600712603947109</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.2251566821012727</v>
+        <v>0.3992873960528909</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>0.6441441441441441</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>0.3558558558558558</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.620270891219535</v>
+        <v>0.378741990170458</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.3797291087804648</v>
+        <v>0.621258009829542</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>VfL Bochum</t>
+          <t>Borussia Monchengladbach</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mönchengladbach</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="AL13" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="AP13" t="n">
-        <v>2161.95716711579</v>
+        <v>539.0264321580335</v>
       </c>
       <c r="AQ13" t="n">
-        <v>72.60512474087125</v>
+        <v>58.14687969826859</v>
       </c>
       <c r="AR13" t="n">
-        <v>30.23255813953487</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>78.66016271852729</v>
+        <v>44.32989690721651</v>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="AT13" t="n">
-        <v>287.446286491226</v>
+        <v>82.3958531170869</v>
       </c>
       <c r="AU13" t="n">
-        <v>54.34087342323124</v>
+        <v>-11.17100724771191</v>
       </c>
       <c r="AV13" t="n">
-        <v>-7.131011608623561</v>
+        <v>-14.76407914764081</v>
       </c>
       <c r="AW13" t="n">
-        <v>-39.23144794106224</v>
+        <v>6.78181150903181</v>
       </c>
       <c r="AX13" t="n">
-        <v>-61.78740884497951</v>
+        <v>-58.05893265499979</v>
       </c>
       <c r="AY13" t="n">
-        <v>-35.80108289935541</v>
+        <v>-11.77474734905722</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7.279693486590033</v>
+        <v>0.3584229390680926</v>
       </c>
       <c r="BA13" t="n">
-        <v>38.79492228515667</v>
+        <v>-56.6090062711569</v>
       </c>
       <c r="BB13" t="n">
-        <v>-41.18075856192841</v>
+        <v>-20.2783428165031</v>
       </c>
       <c r="BC13" t="n">
-        <v>-28.69704428198808</v>
+        <v>8.803239177478162</v>
       </c>
       <c r="BD13" t="n">
-        <v>-44.75138121546961</v>
+        <v>1.467160290689717</v>
       </c>
       <c r="BE13" t="n">
-        <v>-10.92824189137063</v>
+        <v>72.56992575543866</v>
       </c>
       <c r="BF13" t="n">
-        <v>820.2851885042725</v>
+        <v>154.6240707492729</v>
       </c>
       <c r="BG13" t="n">
-        <v>148.1202035237919</v>
-      </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>14.88356528777388</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>28.90488909534317</v>
       </c>
       <c r="BI13" t="n">
-        <v>47.12046165522592</v>
+        <v>-26.16343144515183</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-1.840802153126962</v>
+        <v>-2.202634115714643</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0.8101361185575164</v>
+        <v>-0.9601009703131258</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.4470949148112228</v>
+        <v>-0.8020317141991697</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0.847952490882277</v>
+        <v>-2.611266046229855</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.4487590661695448</v>
+        <v>-0.2223987599899781</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.2129676785558727</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>-0.0312673012300436</v>
       </c>
       <c r="BR13" t="n">
         <v>0</v>
@@ -11887,34 +11889,34 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0.05864414731409806</v>
+        <v>-0.002612412092333019</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0.2415630000306788</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
         <v>0</v>
       </c>
       <c r="BW13" t="n">
-        <v>0</v>
+        <v>-0.4751317816237292</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>-0.08491129467822067</v>
       </c>
       <c r="BY13" t="n">
-        <v>0</v>
+        <v>-2.469476918880253</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-3.001532294403968</v>
+        <v>-1.124138572395816</v>
       </c>
       <c r="CA13" t="n">
-        <v>-2.010262421795192</v>
+        <v>-0.2398232456714458</v>
       </c>
       <c r="CB13" t="n">
-        <v>-3.36744555682396</v>
+        <v>-0.4150917694690047</v>
       </c>
       <c r="CC13" t="n">
-        <v>-1.078541947538457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -11923,12 +11925,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -11937,76 +11939,76 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8938128261885537</v>
+        <v>0.293675502596524</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08209362404625328</v>
+        <v>0.1513938151785094</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02409354976519363</v>
+        <v>0.5549306822249681</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3813161491969304</v>
+        <v>0.1968924652216883</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3374224636290443</v>
+        <v>0.2395187078249265</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2812613871740253</v>
+        <v>0.5635888269533847</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7343859722621945</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.117220238597397</v>
+        <v>0.1196523155364254</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1483937891404085</v>
+        <v>0.8803476844635745</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5534530459701571</v>
+        <v>0.2485422372105284</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4465469540298431</v>
+        <v>0.7514577627894728</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5494566716479293</v>
+        <v>0.2481144707384086</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4505433283520706</v>
+        <v>0.7518855292615915</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0.3755274261603376</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.6244725738396625</v>
       </c>
       <c r="W14" t="n">
-        <v>0.524200140682832</v>
+        <v>0.6178245078961999</v>
       </c>
       <c r="X14" t="n">
-        <v>0.475799859317168</v>
+        <v>0.3821754921038001</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6479514436425383</v>
+        <v>0.7333824221624503</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.3520485563574623</v>
+        <v>0.2666175778375513</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.5230414151391769</v>
+        <v>0.7164319325627947</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.4769585848608232</v>
+        <v>0.2835680674372055</v>
       </c>
       <c r="AC14" t="n">
         <v>0.6441441441441441</v>
@@ -12015,169 +12017,167 @@
         <v>0.3558558558558558</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.3585796207197709</v>
+        <v>0.6314892202861682</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.641420379280229</v>
+        <v>0.3685107797138318</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>TSG Hoffenheim</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>FSV Mainz 05</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>2.74</v>
+        <v>1.25</v>
       </c>
       <c r="AL14" t="n">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="AM14" t="n">
-        <v>2.18</v>
+        <v>8.25</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AP14" t="n">
-        <v>1414.776806267351</v>
+        <v>44.1621495485595</v>
       </c>
       <c r="AQ14" t="n">
-        <v>29.75954762813588</v>
-      </c>
-      <c r="AR14" t="inlineStr">
+        <v>41.9474556166404</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>-2.222222222222225</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>-9.126812722013689</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>25.81504089291813</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>-20.47544335642589</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>39.68253968253968</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>59.19139518716992</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>-58.7258316950418</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>-38.43739978792783</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>166.6666666666667</v>
+      </c>
+      <c r="BA14" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="AS14" t="n">
-        <v>145.9425733137057</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>248.0346848292484</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>-15.32446220640649</v>
-      </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="AW14" t="n">
-        <v>143.7414299211555</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>-48.67878565959322</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>20.29797250820655</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>-54.12844036697248</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>-37.53753289741459</v>
-      </c>
       <c r="BB14" t="n">
-        <v>-4.141271924533529</v>
+        <v>-9.096994075623698</v>
       </c>
       <c r="BC14" t="n">
-        <v>18.75121060099723</v>
+        <v>-6.946265741967917</v>
       </c>
       <c r="BD14" t="n">
-        <v>-3.574686183381837</v>
+        <v>3.4965034965035</v>
       </c>
       <c r="BE14" t="n">
-        <v>73.21620542059819</v>
+        <v>5.570553740340545</v>
       </c>
       <c r="BF14" t="n">
-        <v>38.56181746516643</v>
+        <v>66.6973528336688</v>
       </c>
       <c r="BG14" t="n">
-        <v>2.274053457098857</v>
+        <v>56.73289607718757</v>
       </c>
       <c r="BH14" t="n">
-        <v>37.07934547699909</v>
+        <v>24.8945147679325</v>
       </c>
       <c r="BI14" t="n">
-        <v>-23.94927043070074</v>
+        <v>20.60554776432295</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.9328679635589529</v>
+        <v>-4.667987005238705</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0.2290698316245476</v>
+        <v>-4.503069962792673</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.998805428707266</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0.5926921579343912</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0.3878488793676808</v>
+        <v>-0.04378977624390037</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.5442176870748299</v>
+        <v>-0.06063031273115307</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0.320941042127407</v>
+        <v>-0.07935448172522697</v>
       </c>
       <c r="BR14" t="n">
         <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0.3123464371805681</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0</v>
+        <v>-0.04975867044832562</v>
       </c>
       <c r="BU14" t="n">
-        <v>0</v>
+        <v>-0.079613872717321</v>
       </c>
       <c r="BV14" t="n">
         <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0.7656252715314854</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>-0.2145002145002144</v>
       </c>
       <c r="BY14" t="n">
-        <v>-2.049480028903898</v>
+        <v>-0.3350232988618901</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0.615674928305298</v>
+        <v>-0.6774356823119739</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0.04918953826738041</v>
+        <v>-0.6128623885990054</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.5984082639134909</v>
+        <v>-0.3374803374803375</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0.289271103735667</v>
       </c>
     </row>
     <row r="15">
